--- a/realme/July/All Details/01.07.2021/realme Bank Statement July-2021.xlsx
+++ b/realme/July/All Details/01.07.2021/realme Bank Statement July-2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\realme\July\All Details\01.07.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\realme\JULY\All Details\01.07.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2229,12 +2229,51 @@
     <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="38" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="38" fillId="35" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="35" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2245,45 +2284,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="38" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="38" fillId="35" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="35" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="38" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4003,73 +4003,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="238" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="244"/>
-      <c r="F1" s="244"/>
-      <c r="G1" s="244"/>
-      <c r="H1" s="244"/>
-      <c r="I1" s="244"/>
-      <c r="J1" s="244"/>
-      <c r="K1" s="244"/>
-      <c r="L1" s="244"/>
-      <c r="M1" s="244"/>
-      <c r="N1" s="244"/>
-      <c r="O1" s="244"/>
-      <c r="P1" s="244"/>
-      <c r="Q1" s="244"/>
-      <c r="R1" s="244"/>
-      <c r="S1" s="244"/>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
+      <c r="N1" s="238"/>
+      <c r="O1" s="238"/>
+      <c r="P1" s="238"/>
+      <c r="Q1" s="238"/>
+      <c r="R1" s="238"/>
+      <c r="S1" s="238"/>
     </row>
     <row r="2" spans="1:26" s="133" customFormat="1" ht="18">
-      <c r="A2" s="245" t="s">
+      <c r="A2" s="239" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="245"/>
-      <c r="C2" s="245"/>
-      <c r="D2" s="245"/>
-      <c r="E2" s="245"/>
-      <c r="F2" s="245"/>
-      <c r="G2" s="245"/>
-      <c r="H2" s="245"/>
-      <c r="I2" s="245"/>
-      <c r="J2" s="245"/>
-      <c r="K2" s="245"/>
-      <c r="L2" s="245"/>
-      <c r="M2" s="245"/>
-      <c r="N2" s="245"/>
-      <c r="O2" s="245"/>
-      <c r="P2" s="245"/>
-      <c r="Q2" s="245"/>
-      <c r="R2" s="245"/>
-      <c r="S2" s="245"/>
+      <c r="B2" s="239"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="239"/>
+      <c r="H2" s="239"/>
+      <c r="I2" s="239"/>
+      <c r="J2" s="239"/>
+      <c r="K2" s="239"/>
+      <c r="L2" s="239"/>
+      <c r="M2" s="239"/>
+      <c r="N2" s="239"/>
+      <c r="O2" s="239"/>
+      <c r="P2" s="239"/>
+      <c r="Q2" s="239"/>
+      <c r="R2" s="239"/>
+      <c r="S2" s="239"/>
     </row>
     <row r="3" spans="1:26" s="134" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="246" t="s">
+      <c r="A3" s="240" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="247"/>
-      <c r="C3" s="247"/>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
-      <c r="F3" s="247"/>
-      <c r="G3" s="247"/>
-      <c r="H3" s="247"/>
-      <c r="I3" s="247"/>
-      <c r="J3" s="247"/>
-      <c r="K3" s="247"/>
-      <c r="L3" s="247"/>
-      <c r="M3" s="247"/>
-      <c r="N3" s="247"/>
-      <c r="O3" s="247"/>
-      <c r="P3" s="247"/>
-      <c r="Q3" s="247"/>
-      <c r="R3" s="247"/>
-      <c r="S3" s="248"/>
+      <c r="B3" s="241"/>
+      <c r="C3" s="241"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="241"/>
+      <c r="F3" s="241"/>
+      <c r="G3" s="241"/>
+      <c r="H3" s="241"/>
+      <c r="I3" s="241"/>
+      <c r="J3" s="241"/>
+      <c r="K3" s="241"/>
+      <c r="L3" s="241"/>
+      <c r="M3" s="241"/>
+      <c r="N3" s="241"/>
+      <c r="O3" s="241"/>
+      <c r="P3" s="241"/>
+      <c r="Q3" s="241"/>
+      <c r="R3" s="241"/>
+      <c r="S3" s="242"/>
       <c r="U3" s="58"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
@@ -4078,58 +4078,58 @@
       <c r="Z3" s="13"/>
     </row>
     <row r="4" spans="1:26" s="136" customFormat="1">
-      <c r="A4" s="249" t="s">
+      <c r="A4" s="243" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="251" t="s">
+      <c r="B4" s="245" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="238" t="s">
+      <c r="C4" s="247" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="238" t="s">
+      <c r="D4" s="247" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="238" t="s">
+      <c r="E4" s="247" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="238" t="s">
+      <c r="F4" s="247" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="238" t="s">
+      <c r="G4" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="238" t="s">
+      <c r="H4" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="238" t="s">
+      <c r="I4" s="247" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="238" t="s">
+      <c r="J4" s="247" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="238" t="s">
+      <c r="K4" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="238" t="s">
+      <c r="L4" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="238" t="s">
+      <c r="M4" s="247" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="238" t="s">
+      <c r="N4" s="247" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="240" t="s">
+      <c r="O4" s="253" t="s">
         <v>57</v>
       </c>
-      <c r="P4" s="242" t="s">
+      <c r="P4" s="255" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="255" t="s">
+      <c r="Q4" s="251" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="253" t="s">
+      <c r="R4" s="249" t="s">
         <v>45</v>
       </c>
       <c r="S4" s="135" t="s">
@@ -4142,24 +4142,24 @@
       <c r="Y4" s="138"/>
     </row>
     <row r="5" spans="1:26" s="136" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="250"/>
-      <c r="B5" s="252"/>
-      <c r="C5" s="239"/>
-      <c r="D5" s="239"/>
-      <c r="E5" s="239"/>
-      <c r="F5" s="239"/>
-      <c r="G5" s="239"/>
-      <c r="H5" s="239"/>
-      <c r="I5" s="239"/>
-      <c r="J5" s="239"/>
-      <c r="K5" s="239"/>
-      <c r="L5" s="239"/>
-      <c r="M5" s="239"/>
-      <c r="N5" s="239"/>
-      <c r="O5" s="241"/>
-      <c r="P5" s="243"/>
-      <c r="Q5" s="256"/>
-      <c r="R5" s="254"/>
+      <c r="A5" s="244"/>
+      <c r="B5" s="246"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
+      <c r="K5" s="248"/>
+      <c r="L5" s="248"/>
+      <c r="M5" s="248"/>
+      <c r="N5" s="248"/>
+      <c r="O5" s="254"/>
+      <c r="P5" s="256"/>
+      <c r="Q5" s="252"/>
+      <c r="R5" s="250"/>
       <c r="S5" s="140" t="s">
         <v>46</v>
       </c>
@@ -7120,6 +7120,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -7136,11 +7141,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17279,8 +17279,8 @@
   </sheetPr>
   <dimension ref="A1:AC224"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -17473,7 +17473,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="183">
-        <v>84829</v>
+        <v>93629</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="33"/>
@@ -17618,7 +17618,7 @@
         <v>59</v>
       </c>
       <c r="E11" s="42">
-        <v>60630</v>
+        <v>51830</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="33"/>
